--- a/biology/Zoologie/Ctenophorus_decresii/Ctenophorus_decresii.xlsx
+++ b/biology/Zoologie/Ctenophorus_decresii/Ctenophorus_decresii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ctenophorus decresii est une espèce de sauriens de la famille des Agamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ctenophorus decresii est une espèce de sauriens de la famille des Agamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie[1]. Elle se rencontre dans les zones rocheuses dans l'est de l'Australie-Méridionale, y compris sur Kangaroo Island et dans les régions adjacentes en Nouvelle-Galles du Sud.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie. Elle se rencontre dans les zones rocheuses dans l'est de l'Australie-Méridionale, y compris sur Kangaroo Island et dans les régions adjacentes en Nouvelle-Galles du Sud.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ctenophorus decresii mesure environ 80 mm. Son dos est gris et brun avec des taches plus foncées sur le corps et la tête.
 </t>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, l'île de Decrès, ancien nom de Kangaroo Island[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en référence au lieu de sa découverte, l'île de Decrès, ancien nom de Kangaroo Island.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1837 : Erpétologie Générale ou Histoire Naturelle Complète des Reptiles. Librairie. Encyclopédique Roret, Paris, vol. 4, p. 1-570 (texte intégral).</t>
         </is>
